--- a/office/launaReiknivel/src/data/launaReiknivel/launaReiknivel.xlsx
+++ b/office/launaReiknivel/src/data/launaReiknivel/launaReiknivel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kristogudmundsson/BESTSELLER/office/launaReiknivel/src/data/launaReiknivel/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20284E9B-1B72-AA4C-9D65-BF17EE5027DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C96154E7-301B-7145-A9F9-1A1246C6B22B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="780" windowWidth="34200" windowHeight="20380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="413" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="411" uniqueCount="126">
   <si>
     <t>Alexander Aron Tómasson</t>
   </si>
@@ -398,9 +398,6 @@
   </si>
   <si>
     <t>0,42</t>
-  </si>
-  <si>
-    <t>lll</t>
   </si>
 </sst>
 </file>
@@ -742,8 +739,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E31" sqref="E31"/>
+    <sheetView tabSelected="1" zoomScale="135" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -769,9 +766,6 @@
       <c r="A1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
       <c r="C1" t="s">
         <v>1</v>
       </c>
@@ -780,9 +774,6 @@
       </c>
       <c r="F1" t="s">
         <v>1</v>
-      </c>
-      <c r="G1" t="s">
-        <v>126</v>
       </c>
       <c r="H1" t="s">
         <v>1</v>
